--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Allied Digital Services Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Allied Digital Services Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Quarterly Results of Allied Digital Services(in Rs. Cr.)</t>
   </si>
@@ -215,6 +215,141 @@
   </si>
   <si>
     <t>Sep '24</t>
+  </si>
+  <si>
+    <t>41.11</t>
+  </si>
+  <si>
+    <t>40.65</t>
+  </si>
+  <si>
+    <t>42.52</t>
+  </si>
+  <si>
+    <t>24.59</t>
+  </si>
+  <si>
+    <t>39.23</t>
+  </si>
+  <si>
+    <t>33.47</t>
+  </si>
+  <si>
+    <t>27.90</t>
+  </si>
+  <si>
+    <t>24.90</t>
+  </si>
+  <si>
+    <t>27.89</t>
+  </si>
+  <si>
+    <t>29.31</t>
+  </si>
+  <si>
+    <t>22.94</t>
+  </si>
+  <si>
+    <t>23.27</t>
+  </si>
+  <si>
+    <t>21.86</t>
+  </si>
+  <si>
+    <t>21.76</t>
+  </si>
+  <si>
+    <t>17.22</t>
+  </si>
+  <si>
+    <t>17.27</t>
+  </si>
+  <si>
+    <t>17.70</t>
+  </si>
+  <si>
+    <t>18.55</t>
+  </si>
+  <si>
+    <t>17.59</t>
+  </si>
+  <si>
+    <t>20.39</t>
+  </si>
+  <si>
+    <t>17.82</t>
+  </si>
+  <si>
+    <t>18.03</t>
+  </si>
+  <si>
+    <t>15.40</t>
+  </si>
+  <si>
+    <t>23.98</t>
+  </si>
+  <si>
+    <t>20.16</t>
+  </si>
+  <si>
+    <t>22.77</t>
+  </si>
+  <si>
+    <t>26.55</t>
+  </si>
+  <si>
+    <t>24.72</t>
+  </si>
+  <si>
+    <t>21.24</t>
+  </si>
+  <si>
+    <t>25.70</t>
+  </si>
+  <si>
+    <t>25.97</t>
+  </si>
+  <si>
+    <t>22.42</t>
+  </si>
+  <si>
+    <t>26.10</t>
+  </si>
+  <si>
+    <t>29.09</t>
+  </si>
+  <si>
+    <t>44.98</t>
+  </si>
+  <si>
+    <t>45.11</t>
+  </si>
+  <si>
+    <t>48.90</t>
+  </si>
+  <si>
+    <t>50.64</t>
+  </si>
+  <si>
+    <t>65.64</t>
+  </si>
+  <si>
+    <t>66.36</t>
+  </si>
+  <si>
+    <t>68.33</t>
+  </si>
+  <si>
+    <t>69.08</t>
+  </si>
+  <si>
+    <t>82.87</t>
+  </si>
+  <si>
+    <t>74.95</t>
+  </si>
+  <si>
+    <t>91.07</t>
   </si>
 </sst>
 </file>
@@ -650,8 +785,8 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>41.11</v>
+      <c r="B2" t="s">
+        <v>67</v>
       </c>
       <c r="C2">
         <v>49.25</v>
@@ -690,7 +825,7 @@
         <v>0.84</v>
       </c>
       <c r="O2">
-        <v>0.718421052631579</v>
+        <v>0.72</v>
       </c>
       <c r="P2">
         <v>0.84</v>
@@ -718,8 +853,8 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
-        <v>40.65</v>
+      <c r="B3" t="s">
+        <v>68</v>
       </c>
       <c r="C3">
         <v>44.81</v>
@@ -758,7 +893,7 @@
         <v>7.2</v>
       </c>
       <c r="O3">
-        <v>0.718421052631579</v>
+        <v>0.72</v>
       </c>
       <c r="P3">
         <v>7.2</v>
@@ -786,8 +921,8 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
-        <v>42.52</v>
+      <c r="B4" t="s">
+        <v>69</v>
       </c>
       <c r="C4">
         <v>38.94</v>
@@ -826,7 +961,7 @@
         <v>0.58</v>
       </c>
       <c r="O4">
-        <v>0.718421052631579</v>
+        <v>0.72</v>
       </c>
       <c r="P4">
         <v>0.58</v>
@@ -854,8 +989,8 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
-        <v>24.59</v>
+      <c r="B5" t="s">
+        <v>70</v>
       </c>
       <c r="C5">
         <v>23.6</v>
@@ -922,14 +1057,14 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6">
-        <v>39.23</v>
+      <c r="B6" t="s">
+        <v>71</v>
       </c>
       <c r="C6">
         <v>37.72</v>
       </c>
       <c r="D6">
-        <v>12.50282051282051</v>
+        <v>12.5</v>
       </c>
       <c r="E6">
         <v>0.43</v>
@@ -962,7 +1097,7 @@
         <v>-7.5</v>
       </c>
       <c r="O6">
-        <v>0.718421052631579</v>
+        <v>0.72</v>
       </c>
       <c r="P6">
         <v>-7.5</v>
@@ -990,8 +1125,8 @@
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
-        <v>33.47</v>
+      <c r="B7" t="s">
+        <v>72</v>
       </c>
       <c r="C7">
         <v>39.73</v>
@@ -1030,7 +1165,7 @@
         <v>5.17</v>
       </c>
       <c r="O7">
-        <v>0.718421052631579</v>
+        <v>0.72</v>
       </c>
       <c r="P7">
         <v>5.17</v>
@@ -1058,8 +1193,8 @@
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
-        <v>27.9</v>
+      <c r="B8" t="s">
+        <v>73</v>
       </c>
       <c r="C8">
         <v>26.11</v>
@@ -1098,7 +1233,7 @@
         <v>-4.67</v>
       </c>
       <c r="O8">
-        <v>0.718421052631579</v>
+        <v>0.72</v>
       </c>
       <c r="P8">
         <v>-4.67</v>
@@ -1126,8 +1261,8 @@
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
-        <v>24.9</v>
+      <c r="B9" t="s">
+        <v>74</v>
       </c>
       <c r="C9">
         <v>24.78</v>
@@ -1194,8 +1329,8 @@
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10">
-        <v>27.89</v>
+      <c r="B10" t="s">
+        <v>75</v>
       </c>
       <c r="C10">
         <v>29.56</v>
@@ -1262,8 +1397,8 @@
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
-        <v>29.31</v>
+      <c r="B11" t="s">
+        <v>76</v>
       </c>
       <c r="C11">
         <v>32.17</v>
@@ -1302,7 +1437,7 @@
         <v>3.9</v>
       </c>
       <c r="O11">
-        <v>0.718421052631579</v>
+        <v>0.72</v>
       </c>
       <c r="P11">
         <v>3.9</v>
@@ -1330,8 +1465,8 @@
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
-        <v>22.94</v>
+      <c r="B12" t="s">
+        <v>77</v>
       </c>
       <c r="C12">
         <v>22.87</v>
@@ -1398,8 +1533,8 @@
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13">
-        <v>23.27</v>
+      <c r="B13" t="s">
+        <v>78</v>
       </c>
       <c r="C13">
         <v>17.35</v>
@@ -1450,24 +1585,24 @@
         <v>25.1</v>
       </c>
       <c r="S13">
-        <v>0.2472727272727273</v>
+        <v>0.25</v>
       </c>
       <c r="T13">
-        <v>0.2452272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="U13">
-        <v>0.2472727272727273</v>
+        <v>0.25</v>
       </c>
       <c r="V13">
-        <v>0.2452272727272727</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14">
-        <v>21.86</v>
+      <c r="B14" t="s">
+        <v>79</v>
       </c>
       <c r="C14">
         <v>21.16</v>
@@ -1534,8 +1669,8 @@
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15">
-        <v>21.76</v>
+      <c r="B15" t="s">
+        <v>80</v>
       </c>
       <c r="C15">
         <v>22.01</v>
@@ -1602,8 +1737,8 @@
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16">
-        <v>17.22</v>
+      <c r="B16" t="s">
+        <v>81</v>
       </c>
       <c r="C16">
         <v>20.13</v>
@@ -1670,8 +1805,8 @@
       <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B17">
-        <v>17.27</v>
+      <c r="B17" t="s">
+        <v>82</v>
       </c>
       <c r="C17">
         <v>17.27</v>
@@ -1738,8 +1873,8 @@
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18">
-        <v>17.7</v>
+      <c r="B18" t="s">
+        <v>83</v>
       </c>
       <c r="C18">
         <v>17.7</v>
@@ -1806,8 +1941,8 @@
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19">
-        <v>18.55</v>
+      <c r="B19" t="s">
+        <v>84</v>
       </c>
       <c r="C19">
         <v>18.55</v>
@@ -1874,8 +2009,8 @@
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20">
-        <v>17.59</v>
+      <c r="B20" t="s">
+        <v>85</v>
       </c>
       <c r="C20">
         <v>17.59</v>
@@ -1942,8 +2077,8 @@
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21">
-        <v>20.39</v>
+      <c r="B21" t="s">
+        <v>86</v>
       </c>
       <c r="C21">
         <v>20.39</v>
@@ -2010,8 +2145,8 @@
       <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22">
-        <v>17.82</v>
+      <c r="B22" t="s">
+        <v>87</v>
       </c>
       <c r="C22">
         <v>17.82</v>
@@ -2078,8 +2213,8 @@
       <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="B23">
-        <v>18.03</v>
+      <c r="B23" t="s">
+        <v>88</v>
       </c>
       <c r="C23">
         <v>18.03</v>
@@ -2146,8 +2281,8 @@
       <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B24">
-        <v>15.4</v>
+      <c r="B24" t="s">
+        <v>89</v>
       </c>
       <c r="C24">
         <v>15.4</v>
@@ -2214,8 +2349,8 @@
       <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="B25">
-        <v>23.98</v>
+      <c r="B25" t="s">
+        <v>90</v>
       </c>
       <c r="C25">
         <v>23.98</v>
@@ -2282,8 +2417,8 @@
       <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="B26">
-        <v>20.16</v>
+      <c r="B26" t="s">
+        <v>91</v>
       </c>
       <c r="C26">
         <v>20.16</v>
@@ -2350,8 +2485,8 @@
       <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="B27">
-        <v>22.77</v>
+      <c r="B27" t="s">
+        <v>92</v>
       </c>
       <c r="C27">
         <v>22.77</v>
@@ -2418,8 +2553,8 @@
       <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B28">
-        <v>26.55</v>
+      <c r="B28" t="s">
+        <v>93</v>
       </c>
       <c r="C28">
         <v>26.55</v>
@@ -2486,8 +2621,8 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="B29">
-        <v>24.72</v>
+      <c r="B29" t="s">
+        <v>94</v>
       </c>
       <c r="C29">
         <v>24.72</v>
@@ -2554,8 +2689,8 @@
       <c r="A30" t="s">
         <v>50</v>
       </c>
-      <c r="B30">
-        <v>21.24</v>
+      <c r="B30" t="s">
+        <v>95</v>
       </c>
       <c r="C30">
         <v>21.24</v>
@@ -2622,8 +2757,8 @@
       <c r="A31" t="s">
         <v>51</v>
       </c>
-      <c r="B31">
-        <v>25.7</v>
+      <c r="B31" t="s">
+        <v>96</v>
       </c>
       <c r="C31">
         <v>25.7</v>
@@ -2690,8 +2825,8 @@
       <c r="A32" t="s">
         <v>52</v>
       </c>
-      <c r="B32">
-        <v>25.97</v>
+      <c r="B32" t="s">
+        <v>97</v>
       </c>
       <c r="C32">
         <v>25.97</v>
@@ -2758,14 +2893,14 @@
       <c r="A33" t="s">
         <v>53</v>
       </c>
-      <c r="B33">
-        <v>22.42</v>
+      <c r="B33" t="s">
+        <v>98</v>
       </c>
       <c r="C33">
         <v>22.42</v>
       </c>
       <c r="D33">
-        <v>12.50282051282051</v>
+        <v>12.5</v>
       </c>
       <c r="E33">
         <v>-0.35</v>
@@ -2826,14 +2961,14 @@
       <c r="A34" t="s">
         <v>54</v>
       </c>
-      <c r="B34">
-        <v>26.1</v>
+      <c r="B34" t="s">
+        <v>99</v>
       </c>
       <c r="C34">
         <v>26.1</v>
       </c>
       <c r="D34">
-        <v>12.50282051282051</v>
+        <v>12.5</v>
       </c>
       <c r="E34">
         <v>-0.9399999999999999</v>
@@ -2894,14 +3029,14 @@
       <c r="A35" t="s">
         <v>55</v>
       </c>
-      <c r="B35">
-        <v>29.09</v>
+      <c r="B35" t="s">
+        <v>100</v>
       </c>
       <c r="C35">
         <v>29.09</v>
       </c>
       <c r="D35">
-        <v>12.50282051282051</v>
+        <v>12.5</v>
       </c>
       <c r="E35">
         <v>-1.31</v>
@@ -2962,8 +3097,8 @@
       <c r="A36" t="s">
         <v>56</v>
       </c>
-      <c r="B36">
-        <v>44.98</v>
+      <c r="B36" t="s">
+        <v>101</v>
       </c>
       <c r="C36">
         <v>44.98</v>
@@ -3030,8 +3165,8 @@
       <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B37">
-        <v>45.11</v>
+      <c r="B37" t="s">
+        <v>102</v>
       </c>
       <c r="C37">
         <v>45.11</v>
@@ -3098,8 +3233,8 @@
       <c r="A38" t="s">
         <v>58</v>
       </c>
-      <c r="B38">
-        <v>48.9</v>
+      <c r="B38" t="s">
+        <v>103</v>
       </c>
       <c r="C38">
         <v>48.9</v>
@@ -3166,8 +3301,8 @@
       <c r="A39" t="s">
         <v>59</v>
       </c>
-      <c r="B39">
-        <v>50.64</v>
+      <c r="B39" t="s">
+        <v>104</v>
       </c>
       <c r="C39">
         <v>50.64</v>
@@ -3234,8 +3369,8 @@
       <c r="A40" t="s">
         <v>60</v>
       </c>
-      <c r="B40">
-        <v>65.64</v>
+      <c r="B40" t="s">
+        <v>105</v>
       </c>
       <c r="C40">
         <v>65.64</v>
@@ -3302,8 +3437,8 @@
       <c r="A41" t="s">
         <v>61</v>
       </c>
-      <c r="B41">
-        <v>66.36</v>
+      <c r="B41" t="s">
+        <v>106</v>
       </c>
       <c r="C41">
         <v>66.36</v>
@@ -3370,14 +3505,14 @@
       <c r="A42" t="s">
         <v>62</v>
       </c>
-      <c r="B42">
-        <v>68.33</v>
+      <c r="B42" t="s">
+        <v>107</v>
       </c>
       <c r="C42">
         <v>68.33</v>
       </c>
       <c r="D42">
-        <v>12.50282051282051</v>
+        <v>12.5</v>
       </c>
       <c r="E42">
         <v>-1.96</v>
@@ -3438,14 +3573,14 @@
       <c r="A43" t="s">
         <v>63</v>
       </c>
-      <c r="B43">
-        <v>69.08</v>
+      <c r="B43" t="s">
+        <v>108</v>
       </c>
       <c r="C43">
         <v>69.08</v>
       </c>
       <c r="D43">
-        <v>12.50282051282051</v>
+        <v>12.5</v>
       </c>
       <c r="E43">
         <v>-0.3</v>
@@ -3506,8 +3641,8 @@
       <c r="A44" t="s">
         <v>64</v>
       </c>
-      <c r="B44">
-        <v>82.87</v>
+      <c r="B44" t="s">
+        <v>109</v>
       </c>
       <c r="C44">
         <v>82.87</v>
@@ -3574,8 +3709,8 @@
       <c r="A45" t="s">
         <v>65</v>
       </c>
-      <c r="B45">
-        <v>74.95</v>
+      <c r="B45" t="s">
+        <v>110</v>
       </c>
       <c r="C45">
         <v>74.95</v>
@@ -3642,8 +3777,8 @@
       <c r="A46" t="s">
         <v>66</v>
       </c>
-      <c r="B46">
-        <v>91.06999999999999</v>
+      <c r="B46" t="s">
+        <v>111</v>
       </c>
       <c r="C46">
         <v>91.06999999999999</v>
